--- a/binding_sites.xlsx
+++ b/binding_sites.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arman/Downloads/DARSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB96E46-B27E-674B-9590-BE4DD1913C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C07AD3-35DF-A048-8B75-AEBA945C982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="3200" windowWidth="28040" windowHeight="17440" xr2:uid="{D9878A7C-2BFC-3E47-9519-57C6B8272899}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="latex" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="104">
   <si>
     <t>Operon</t>
   </si>
@@ -354,12 +355,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -383,8 +391,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC9807F-D449-F64D-B609-C46CE22F50A2}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,27 +762,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -782,12 +791,12 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -804,7 +813,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -821,27 +830,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -850,21 +859,21 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -872,10 +881,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -884,15 +893,15 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -901,15 +910,15 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -918,15 +927,15 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -935,12 +944,12 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -949,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -957,50 +966,50 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1008,16 +1017,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1025,16 +1034,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1042,16 +1051,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1059,16 +1068,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1076,10 +1085,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1088,15 +1097,15 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1105,15 +1114,15 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1122,15 +1131,15 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1139,97 +1148,97 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1246,10 +1255,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1258,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1297,13 +1306,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1314,24 +1323,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1340,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1348,7 +1357,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1365,7 +1374,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1374,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1382,7 +1391,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1399,7 +1408,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1416,7 +1425,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1433,7 +1442,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1450,10 +1459,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -1462,29 +1471,29 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1493,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1501,16 +1510,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1518,10 +1527,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1530,12 +1539,12 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1552,10 +1561,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1564,21 +1573,21 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1586,16 +1595,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1603,10 +1612,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1615,69 +1624,69 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1688,186 +1697,186 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1875,135 +1884,135 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2011,16 +2020,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2028,7 +2037,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -2037,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2045,67 +2054,67 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2113,16 +2122,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2130,33 +2139,33 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>-1</v>
@@ -2164,13 +2173,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2181,44 +2190,44 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2227,49 +2236,49 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -2278,38 +2287,38 @@
         <v>2</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2317,33 +2326,33 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2351,16 +2360,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2368,80 +2377,1717 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <f>COUNT(B1:B98)</f>
+        <v>97</v>
+      </c>
+      <c r="C100">
+        <f>SUMIF(E1:E98,"&gt;=0",C1:C98)</f>
+        <v>131</v>
+      </c>
+      <c r="E100">
+        <f>SUMIF(E1:E98,"&gt;=0",E1:E98)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101">
+        <f>SUM(B3:B100)</f>
+        <v>319</v>
+      </c>
+      <c r="C101">
+        <f>SUM(C3:C100)</f>
+        <v>297</v>
+      </c>
+      <c r="D101">
+        <f>SUM(D3:D100)</f>
+        <v>102</v>
+      </c>
+      <c r="E101">
+        <f>SUM(E3:E100)</f>
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E101">
+    <sortCondition ref="B2:B101"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26F548-DED4-7245-9B7B-09F446D64A2A}">
+  <dimension ref="A1:J50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B99">
-        <v>2</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>93</v>
-      </c>
-      <c r="B100">
-        <f>SUM(B2:B99)</f>
-        <v>222</v>
-      </c>
-      <c r="C100">
-        <f>SUM(C2:C99)</f>
-        <v>167</v>
-      </c>
-      <c r="D100">
-        <f>SUM(D2:D99)</f>
-        <v>102</v>
-      </c>
-      <c r="E100">
-        <f>SUM(E2:E99)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B101">
-        <f>COUNT(B2:B99)</f>
-        <v>98</v>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
